--- a/biology/Botanique/Égagropile_(botanique)/Égagropile_(botanique).xlsx
+++ b/biology/Botanique/Égagropile_(botanique)/Égagropile_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89gagropile_(botanique)</t>
+          <t>Égagropile_(botanique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ægagropile
-Un égagropile, ægagropile (du grec αἴγαγρος / aígagros[1], « chèvre sauvage », et πῖλος / , «  laine ou poils cardés ; balle de laine foulé ») ou pelote de mer  est une boule de couleur brune, de texture fibreuse, formée de restes de posidonies (Posidonia oceanica) s'accumulant sur les plages sous l'action des vagues[2]. 
-Les égagropiles, communément connues sous le nom de pelotes de mer, résultent de l'effilochage des fibres des feuilles mortes de la plante, agglutinées à des fragments de rhizome, et de leur agglomération sous l'effet des mouvements de la mer[3].
+Un égagropile, ægagropile (du grec αἴγαγρος / aígagros, « chèvre sauvage », et πῖλος / , «  laine ou poils cardés ; balle de laine foulé ») ou pelote de mer  est une boule de couleur brune, de texture fibreuse, formée de restes de posidonies (Posidonia oceanica) s'accumulant sur les plages sous l'action des vagues. 
+Les égagropiles, communément connues sous le nom de pelotes de mer, résultent de l'effilochage des fibres des feuilles mortes de la plante, agglutinées à des fragments de rhizome, et de leur agglomération sous l'effet des mouvements de la mer.
 			Laisse de mer  à Posidonia oceanica sur la plage de Sanary-sur-Mer
 			Amas d'égagropiles en Sicile.
 			Une pelote de mer
 			Détail
-Des formes semblables sont produites par l'algue verte d'eau douce Aegagropila linnaei[4], qui peut constituer de grosses boules vertes, d'où le nom d'« algue-balle » ou « balle de lac » qui est donné à cette algue au Japon. Si la ressemblance de ces boules avec des ægagropiles est à l'origine du nom de genre, ces boules d'algue verte ne constituent cependant pas de véritables égagropiles au sens étymologique du terme, car elles ne sont pas composées de fibres agglomérées.
+Des formes semblables sont produites par l'algue verte d'eau douce Aegagropila linnaei, qui peut constituer de grosses boules vertes, d'où le nom d'« algue-balle » ou « balle de lac » qui est donné à cette algue au Japon. Si la ressemblance de ces boules avec des ægagropiles est à l'origine du nom de genre, ces boules d'algue verte ne constituent cependant pas de véritables égagropiles au sens étymologique du terme, car elles ne sont pas composées de fibres agglomérées.
 </t>
         </is>
       </c>
